--- a/Dropbox/MOXIE/MARKETING & SALES/Inventory/inventory.xlsx
+++ b/Dropbox/MOXIE/MARKETING & SALES/Inventory/inventory.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Resistors" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,17 @@
     <sheet name="Connectors" sheetId="7" r:id="rId12"/>
     <sheet name="Switch" sheetId="13" r:id="rId13"/>
     <sheet name="LED" sheetId="14" r:id="rId14"/>
+    <sheet name="Battery" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Resistors!$A$1:$L$64</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1329" uniqueCount="481">
   <si>
     <t>Power</t>
   </si>
@@ -1443,12 +1444,120 @@
   <si>
     <t>4-pin</t>
   </si>
+  <si>
+    <t>1.2mH</t>
+  </si>
+  <si>
+    <t>Input Filter</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>Wirewound</t>
+  </si>
+  <si>
+    <t>4rs</t>
+  </si>
+  <si>
+    <t>HTR</t>
+  </si>
+  <si>
+    <t>47E</t>
+  </si>
+  <si>
+    <t>Thakor</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>7k5</t>
+  </si>
+  <si>
+    <t>cfr</t>
+  </si>
+  <si>
+    <t>mfr</t>
+  </si>
+  <si>
+    <t>22E</t>
+  </si>
+  <si>
+    <t>125mW</t>
+  </si>
+  <si>
+    <t>470K</t>
+  </si>
+  <si>
+    <t>RoyalOhm</t>
+  </si>
+  <si>
+    <t>SMT, 1206</t>
+  </si>
+  <si>
+    <t>SMT, 0805</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>2.2 nf</t>
+  </si>
+  <si>
+    <t>VAM</t>
+  </si>
+  <si>
+    <t>LL4148</t>
+  </si>
+  <si>
+    <t>FR107</t>
+  </si>
+  <si>
+    <t>SR360</t>
+  </si>
+  <si>
+    <t>Shop 365, Lajpatrai</t>
+  </si>
+  <si>
+    <t>Viper22A</t>
+  </si>
+  <si>
+    <t>1 mH</t>
+  </si>
+  <si>
+    <t>3.3 mH</t>
+  </si>
+  <si>
+    <t>Everlight</t>
+  </si>
+  <si>
+    <t>67-21/LK2C-BY5670-4C8</t>
+  </si>
+  <si>
+    <t>SMF</t>
+  </si>
+  <si>
+    <t>6V, 4.5AH</t>
+  </si>
+  <si>
+    <t>Trontek</t>
+  </si>
+  <si>
+    <t>Specs</t>
+  </si>
+  <si>
+    <t>Harish Electronics, infront of 531,  Old LajpatRai</t>
+  </si>
+  <si>
+    <t>Bulk</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,7 +1601,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1514,6 +1623,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,7 +1697,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1621,16 +1736,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1648,6 +1757,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1655,6 +1785,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1733,6 +1868,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1767,6 +1903,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1942,14 +2079,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.28515625" style="5" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
@@ -1957,7 +2094,7 @@
     <col min="12" max="12" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -1993,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>372</v>
@@ -2021,7 +2158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2049,7 +2186,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>77</v>
@@ -2077,7 +2214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -2101,7 +2238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>78</v>
@@ -2129,7 +2266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>97</v>
@@ -2159,7 +2296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>97</v>
@@ -2182,7 +2319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>102</v>
@@ -2206,7 +2343,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>10</v>
@@ -2230,7 +2367,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>10</v>
@@ -2261,31 +2398,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1">
-      <c r="A12" s="36"/>
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+      <c r="B12" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="35">
         <v>0.01</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36">
+      <c r="F12" s="35"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>79</v>
@@ -2313,7 +2450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>7</v>
@@ -2341,7 +2478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="4" t="s">
         <v>75</v>
@@ -2369,7 +2506,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
         <v>75</v>
@@ -2397,7 +2534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
@@ -2425,7 +2562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>80</v>
@@ -2453,7 +2590,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>81</v>
@@ -2481,7 +2618,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>15</v>
@@ -2509,9 +2646,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="31"/>
-      <c r="B21" s="42" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="40" t="s">
         <v>436</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2533,34 +2670,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="6" customFormat="1">
-      <c r="B22" s="35" t="s">
+    <row r="22" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
         <v>340</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="37">
+      <c r="E22" s="35">
         <v>0.05</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="36" t="s">
+      <c r="F22" s="35"/>
+      <c r="G22" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="H22" s="36" t="s">
+      <c r="H22" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36">
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>71</v>
@@ -2584,7 +2721,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>12</v>
@@ -2608,7 +2745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>16</v>
@@ -2636,7 +2773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>70</v>
@@ -2660,7 +2797,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>13</v>
@@ -2688,7 +2825,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="4" t="s">
         <v>13</v>
@@ -2702,7 +2839,7 @@
       <c r="E28" s="10">
         <v>0.05</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F28" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G28" s="1"/>
@@ -2714,7 +2851,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>76</v>
@@ -2742,7 +2879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
         <v>76</v>
@@ -2766,7 +2903,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>17</v>
@@ -2794,7 +2931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>18</v>
@@ -2822,7 +2959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
         <v>84</v>
@@ -2853,7 +2990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
         <v>19</v>
@@ -2881,7 +3018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4" t="s">
         <v>19</v>
@@ -2895,7 +3032,7 @@
       <c r="E35" s="10">
         <v>0.01</v>
       </c>
-      <c r="F35" s="28" t="s">
+      <c r="F35" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -2914,7 +3051,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4" t="s">
         <v>87</v>
@@ -2945,7 +3082,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="4" t="s">
         <v>69</v>
@@ -2969,7 +3106,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="4" t="s">
         <v>6</v>
@@ -2997,7 +3134,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>6</v>
@@ -3021,7 +3158,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
         <v>6</v>
@@ -3052,7 +3189,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="4" t="s">
         <v>20</v>
@@ -3076,7 +3213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
         <v>20</v>
@@ -3102,7 +3239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
         <v>20</v>
@@ -3128,7 +3265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="4" t="s">
         <v>100</v>
@@ -3156,7 +3293,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="4" t="s">
         <v>68</v>
@@ -3184,7 +3321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="4" t="s">
         <v>83</v>
@@ -3215,7 +3352,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="4" t="s">
         <v>83</v>
@@ -3243,7 +3380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="4" t="s">
         <v>21</v>
@@ -3257,7 +3394,7 @@
       <c r="E48" s="10">
         <v>0.01</v>
       </c>
-      <c r="F48" s="28" t="s">
+      <c r="F48" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -3276,7 +3413,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="4" t="s">
         <v>95</v>
@@ -3304,7 +3441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="4" t="s">
         <v>73</v>
@@ -3332,7 +3469,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
         <v>88</v>
@@ -3360,7 +3497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
         <v>94</v>
@@ -3388,7 +3525,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="4" t="s">
         <v>85</v>
@@ -3419,7 +3556,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="4" t="s">
         <v>93</v>
@@ -3447,7 +3584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
         <v>72</v>
@@ -3475,7 +3612,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="4" t="s">
         <v>22</v>
@@ -3503,7 +3640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4" t="s">
         <v>92</v>
@@ -3534,7 +3671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="4" t="s">
         <v>92</v>
@@ -3562,7 +3699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
         <v>86</v>
@@ -3593,7 +3730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="4" t="s">
         <v>86</v>
@@ -3621,7 +3758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="4" t="s">
         <v>98</v>
@@ -3645,7 +3782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="4" t="s">
         <v>91</v>
@@ -3673,7 +3810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="4" t="s">
         <v>91</v>
@@ -3704,7 +3841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="4" t="s">
         <v>90</v>
@@ -3732,7 +3869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="4" t="s">
         <v>89</v>
@@ -3760,7 +3897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="4" t="s">
         <v>89</v>
@@ -3774,7 +3911,7 @@
       <c r="E67" s="10">
         <v>0.05</v>
       </c>
-      <c r="F67" s="28" t="s">
+      <c r="F67" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G67" s="1"/>
@@ -3788,7 +3925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="4" t="s">
         <v>14</v>
@@ -3816,7 +3953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
         <v>82</v>
@@ -3844,7 +3981,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="4" t="s">
         <v>74</v>
@@ -3872,7 +4009,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="4" t="s">
         <v>74</v>
@@ -3900,7 +4037,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="4" t="s">
         <v>96</v>
@@ -3928,7 +4065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="4" t="s">
         <v>2</v>
@@ -3952,7 +4089,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="4" t="s">
         <v>23</v>
@@ -3966,7 +4103,7 @@
       <c r="E74" s="10">
         <v>0.05</v>
       </c>
-      <c r="F74" s="28" t="s">
+      <c r="F74" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G74" s="1"/>
@@ -3980,7 +4117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="4" t="s">
         <v>24</v>
@@ -3994,7 +4131,7 @@
       <c r="E75" s="10">
         <v>0.05</v>
       </c>
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="27" t="s">
         <v>229</v>
       </c>
       <c r="G75" s="1"/>
@@ -4008,7 +4145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="4" t="s">
         <v>24</v>
@@ -4036,161 +4173,321 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:12" s="9" customFormat="1">
-      <c r="A77" s="7"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" s="1"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
-      <c r="L78" s="1"/>
-    </row>
-    <row r="79" spans="1:12">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-    </row>
-    <row r="80" spans="1:12">
-      <c r="A80" s="1"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-      <c r="L80" s="1"/>
-    </row>
-    <row r="81" spans="1:12">
-      <c r="A81" s="1"/>
-      <c r="B81" s="4"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-    </row>
-    <row r="82" spans="1:12">
-      <c r="A82" s="1"/>
-      <c r="B82" s="4"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-    </row>
-    <row r="83" spans="1:12">
-      <c r="A83" s="1"/>
-      <c r="B83" s="4"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-    </row>
-    <row r="84" spans="1:12">
-      <c r="A84" s="1"/>
-      <c r="B84" s="4"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-      <c r="K84" s="1"/>
-      <c r="L84" s="1"/>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="A85" s="1"/>
-      <c r="B85" s="4"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="A86" s="1"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-    </row>
-    <row r="87" spans="1:12">
-      <c r="A87" s="1"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="L87" s="1"/>
-    </row>
-    <row r="88" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="47"/>
+      <c r="B77" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>447</v>
+      </c>
+      <c r="D77" s="47" t="s">
+        <v>448</v>
+      </c>
+      <c r="E77" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="F77" s="49"/>
+      <c r="G77" s="47" t="s">
+        <v>450</v>
+      </c>
+      <c r="H77" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I77" s="47" t="s">
+        <v>449</v>
+      </c>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="47"/>
+      <c r="B78" s="48" t="s">
+        <v>451</v>
+      </c>
+      <c r="C78" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="E78" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="F78" s="49"/>
+      <c r="G78" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="H78" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I78" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="J78" s="47"/>
+      <c r="K78" s="47"/>
+      <c r="L78" s="47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="47"/>
+      <c r="B79" s="48" t="s">
+        <v>453</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D79" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="E79" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="F79" s="49"/>
+      <c r="G79" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="H79" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I79" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="47"/>
+      <c r="B80" s="48" t="s">
+        <v>454</v>
+      </c>
+      <c r="C80" s="47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D80" s="47" t="s">
+        <v>456</v>
+      </c>
+      <c r="E80" s="49">
+        <v>0.01</v>
+      </c>
+      <c r="F80" s="49"/>
+      <c r="G80" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="H80" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I80" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="47"/>
+      <c r="B81" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="E81" s="49">
+        <v>0.05</v>
+      </c>
+      <c r="F81" s="49"/>
+      <c r="G81" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="H81" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I81" s="47">
+        <v>0.2</v>
+      </c>
+      <c r="J81" s="47"/>
+      <c r="K81" s="47"/>
+      <c r="L81" s="47">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="50"/>
+      <c r="B82" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E82" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="F82" s="52"/>
+      <c r="G82" s="47" t="s">
+        <v>452</v>
+      </c>
+      <c r="H82" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I82" s="50">
+        <v>0.2</v>
+      </c>
+      <c r="J82" s="50"/>
+      <c r="K82" s="50"/>
+      <c r="L82" s="50">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="50"/>
+      <c r="B83" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="E83" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="F83" s="52"/>
+      <c r="G83" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="H83" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I83" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="50"/>
+      <c r="K83" s="50"/>
+      <c r="L83" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="B84" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="C84" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="D84" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" s="52">
+        <v>0.05</v>
+      </c>
+      <c r="F84" s="52"/>
+      <c r="G84" s="47" t="s">
+        <v>460</v>
+      </c>
+      <c r="H84" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="50">
+        <v>0.06</v>
+      </c>
+      <c r="J84" s="50"/>
+      <c r="K84" s="50"/>
+      <c r="L84" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="D85" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="E85" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="F85" s="52"/>
+      <c r="G85" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="H85" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I85" s="50">
+        <v>0.08</v>
+      </c>
+      <c r="J85" s="50"/>
+      <c r="K85" s="50"/>
+      <c r="L85" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="50"/>
+      <c r="B86" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="D86" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="E86" s="52">
+        <v>0.01</v>
+      </c>
+      <c r="F86" s="52"/>
+      <c r="G86" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="H86" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="I86" s="50">
+        <v>0.08</v>
+      </c>
+      <c r="J86" s="50"/>
+      <c r="K86" s="50"/>
+      <c r="L86" s="50">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="7"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="4"/>
       <c r="C88" s="1"/>
@@ -4204,7 +4501,7 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="4"/>
       <c r="C89" s="1"/>
@@ -4218,7 +4515,7 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="4"/>
       <c r="C90" s="1"/>
@@ -4232,7 +4529,7 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="4"/>
       <c r="C91" s="1"/>
@@ -4246,7 +4543,7 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="4"/>
       <c r="C92" s="1"/>
@@ -4260,7 +4557,7 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="4"/>
       <c r="C93" s="1"/>
@@ -4274,7 +4571,7 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="4"/>
       <c r="C94" s="1"/>
@@ -4288,7 +4585,7 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="4"/>
       <c r="C95" s="1"/>
@@ -4302,7 +4599,7 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="4"/>
       <c r="C96" s="1"/>
@@ -4316,7 +4613,7 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="4"/>
       <c r="C97" s="1"/>
@@ -4330,7 +4627,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="4"/>
       <c r="C98" s="1"/>
@@ -4344,7 +4641,7 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="4"/>
       <c r="C99" s="1"/>
@@ -4358,7 +4655,7 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="4"/>
       <c r="C100" s="1"/>
@@ -4372,7 +4669,7 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="4"/>
       <c r="C101" s="1"/>
@@ -4386,7 +4683,7 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="4"/>
       <c r="C102" s="1"/>
@@ -4400,7 +4697,7 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="4"/>
       <c r="C103" s="1"/>
@@ -4414,7 +4711,7 @@
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="4"/>
       <c r="C104" s="1"/>
@@ -4428,7 +4725,7 @@
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="4"/>
       <c r="C105" s="1"/>
@@ -4442,7 +4739,7 @@
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="4"/>
       <c r="C106" s="1"/>
@@ -4456,7 +4753,7 @@
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="4"/>
       <c r="C107" s="1"/>
@@ -4470,7 +4767,7 @@
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="4"/>
       <c r="C108" s="1"/>
@@ -4484,7 +4781,7 @@
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="4"/>
       <c r="C109" s="1"/>
@@ -4498,7 +4795,7 @@
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="4"/>
       <c r="C110" s="1"/>
@@ -4512,7 +4809,7 @@
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4"/>
       <c r="C111" s="1"/>
@@ -4526,7 +4823,7 @@
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="4"/>
       <c r="C112" s="1"/>
@@ -4540,7 +4837,7 @@
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="4"/>
       <c r="C113" s="1"/>
@@ -4554,7 +4851,7 @@
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="4"/>
       <c r="C114" s="1"/>
@@ -4568,7 +4865,7 @@
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="4"/>
       <c r="C115" s="1"/>
@@ -4582,7 +4879,7 @@
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="4"/>
       <c r="C116" s="1"/>
@@ -4596,7 +4893,7 @@
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="4"/>
       <c r="C117" s="1"/>
@@ -4610,7 +4907,7 @@
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="4"/>
       <c r="C118" s="1"/>
@@ -4624,7 +4921,7 @@
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="4"/>
       <c r="C119" s="1"/>
@@ -4638,7 +4935,7 @@
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="4"/>
       <c r="C120" s="1"/>
@@ -4652,7 +4949,7 @@
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="4"/>
       <c r="C121" s="1"/>
@@ -4666,7 +4963,7 @@
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="4"/>
       <c r="C122" s="1"/>
@@ -4680,7 +4977,7 @@
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="4"/>
       <c r="C123" s="1"/>
@@ -4694,7 +4991,7 @@
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="4"/>
       <c r="C124" s="1"/>
@@ -4708,7 +5005,7 @@
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="4"/>
       <c r="C125" s="1"/>
@@ -4722,7 +5019,7 @@
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="4"/>
       <c r="C126" s="1"/>
@@ -4736,7 +5033,7 @@
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="4"/>
       <c r="C127" s="1"/>
@@ -4750,7 +5047,7 @@
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="4"/>
       <c r="C128" s="1"/>
@@ -4764,7 +5061,7 @@
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="4"/>
       <c r="C129" s="1"/>
@@ -4778,7 +5075,7 @@
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="4"/>
       <c r="C130" s="1"/>
@@ -4792,7 +5089,7 @@
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="4"/>
       <c r="C131" s="1"/>
@@ -4806,7 +5103,7 @@
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="4"/>
       <c r="C132" s="1"/>
@@ -4820,7 +5117,7 @@
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="4"/>
       <c r="C133" s="1"/>
@@ -4834,7 +5131,7 @@
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="4"/>
       <c r="C134" s="1"/>
@@ -4848,7 +5145,7 @@
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="4"/>
       <c r="C135" s="1"/>
@@ -4862,7 +5159,7 @@
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="4"/>
       <c r="C136" s="1"/>
@@ -4876,7 +5173,7 @@
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="4"/>
       <c r="C137" s="1"/>
@@ -4890,7 +5187,7 @@
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="4"/>
       <c r="C138" s="1"/>
@@ -4904,7 +5201,7 @@
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="4"/>
       <c r="C139" s="1"/>
@@ -4918,7 +5215,7 @@
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="4"/>
       <c r="C140" s="1"/>
@@ -4932,7 +5229,7 @@
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="4"/>
       <c r="C141" s="1"/>
@@ -4946,7 +5243,7 @@
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="4"/>
       <c r="C142" s="1"/>
@@ -4960,7 +5257,7 @@
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="4"/>
       <c r="C143" s="1"/>
@@ -4974,7 +5271,7 @@
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="4"/>
       <c r="C144" s="1"/>
@@ -4988,7 +5285,7 @@
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="4"/>
       <c r="C145" s="1"/>
@@ -5002,7 +5299,7 @@
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="4"/>
       <c r="C146" s="1"/>
@@ -5016,7 +5313,7 @@
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="4"/>
       <c r="C147" s="1"/>
@@ -5030,7 +5327,7 @@
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="4"/>
       <c r="C148" s="1"/>
@@ -5044,7 +5341,7 @@
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="4"/>
       <c r="C149" s="1"/>
@@ -5058,7 +5355,7 @@
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="4"/>
       <c r="C150" s="1"/>
@@ -5072,7 +5369,7 @@
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="4"/>
       <c r="C151" s="1"/>
@@ -5086,7 +5383,7 @@
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="4"/>
       <c r="C152" s="1"/>
@@ -5100,7 +5397,7 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="4"/>
       <c r="C153" s="1"/>
@@ -5114,7 +5411,7 @@
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="4"/>
       <c r="C154" s="1"/>
@@ -5128,7 +5425,7 @@
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="4"/>
       <c r="C155" s="1"/>
@@ -5142,24 +5439,167 @@
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
     </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="B156" s="4"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+      <c r="J156" s="1"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="4"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+      <c r="J157" s="1"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="B158" s="4"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+      <c r="J158" s="1"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="1"/>
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="B160" s="4"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="B161" s="4"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="1"/>
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="4"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="B163" s="4"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="B164" s="4"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+      <c r="J164" s="1"/>
+      <c r="K164" s="1"/>
+      <c r="L164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="B165" s="4"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:L64"/>
+  <hyperlinks>
+    <hyperlink ref="B86" r:id="rId1" display="1k@"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>172</v>
       </c>
@@ -5188,7 +5628,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -5208,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>16</v>
       </c>
@@ -5222,7 +5662,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>6</v>
       </c>
@@ -5236,7 +5676,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -5256,41 +5696,41 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
@@ -5319,7 +5759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="51" customHeight="1">
+    <row r="3" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -5351,16 +5791,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
@@ -5392,7 +5832,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -5412,7 +5852,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -5432,7 +5872,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>200</v>
       </c>
@@ -5452,7 +5892,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>200</v>
       </c>
@@ -5472,7 +5912,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>200</v>
       </c>
@@ -5489,7 +5929,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>216</v>
       </c>
@@ -5509,7 +5949,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>216</v>
       </c>
@@ -5529,7 +5969,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>216</v>
       </c>
@@ -5549,7 +5989,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -5569,7 +6009,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>216</v>
       </c>
@@ -5589,7 +6029,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -5609,7 +6049,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>216</v>
       </c>
@@ -5629,7 +6069,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>216</v>
       </c>
@@ -5649,7 +6089,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>216</v>
       </c>
@@ -5669,7 +6109,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>216</v>
       </c>
@@ -5689,7 +6129,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>216</v>
       </c>
@@ -5709,7 +6149,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -5729,7 +6169,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>216</v>
       </c>
@@ -5755,16 +6195,16 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5775,7 +6215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>422</v>
       </c>
@@ -5786,7 +6226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>443</v>
       </c>
@@ -5803,59 +6243,138 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2">
+        <v>3.1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>6.4</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="46">
+        <v>100</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>440</v>
-      </c>
-      <c r="F1" t="s">
-        <v>441</v>
-      </c>
-      <c r="G1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>438</v>
-      </c>
-      <c r="B2">
-        <v>3.1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>439</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
-      </c>
-      <c r="E2">
-        <v>6.4</v>
-      </c>
-      <c r="F2">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>336</v>
+      <c r="E1" s="55" t="s">
+        <v>148</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>475</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>476</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D2" s="46">
+        <v>1</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="F2" s="46">
+        <v>188</v>
+      </c>
+      <c r="G2" s="46">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5864,16 +6383,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>47</v>
       </c>
@@ -5902,7 +6421,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>350</v>
       </c>
@@ -5919,7 +6438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>352</v>
       </c>
@@ -5936,16 +6455,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>242</v>
       </c>
@@ -5959,7 +6478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
@@ -5973,7 +6492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -5987,7 +6506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6001,7 +6520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6015,7 +6534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6035,14 +6554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
@@ -6050,7 +6569,7 @@
     <col min="6" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
         <v>26</v>
@@ -6076,29 +6595,32 @@
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="27" customFormat="1">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33" t="s">
+      <c r="J1" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="32">
+      <c r="C2" s="30">
         <v>50</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="32">
+      <c r="I2" s="30">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="11" customFormat="1">
+    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="11" t="s">
         <v>341</v>
       </c>
@@ -6115,7 +6637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="11" customFormat="1">
+    <row r="5" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>343</v>
       </c>
@@ -6132,7 +6654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="11" customFormat="1">
+    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>355</v>
       </c>
@@ -6149,7 +6671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="11" customFormat="1">
+    <row r="7" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>323</v>
       </c>
@@ -6170,7 +6692,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="11" customFormat="1">
+    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>323</v>
       </c>
@@ -6187,7 +6709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="11" customFormat="1">
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>344</v>
       </c>
@@ -6207,7 +6729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="11" customFormat="1">
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>322</v>
       </c>
@@ -6224,7 +6746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="11" customFormat="1">
+    <row r="11" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>322</v>
       </c>
@@ -6241,7 +6763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="11" customFormat="1">
+    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>345</v>
       </c>
@@ -6261,7 +6783,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="11" customFormat="1">
+    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>345</v>
       </c>
@@ -6281,7 +6803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="11" customFormat="1">
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
@@ -6301,7 +6823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="11" customFormat="1">
+    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
@@ -6321,7 +6843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="11" customFormat="1">
+    <row r="16" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
@@ -6341,7 +6863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="11" customFormat="1">
+    <row r="17" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
@@ -6358,7 +6880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="11" customFormat="1">
+    <row r="18" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
@@ -6375,7 +6897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="11" customFormat="1">
+    <row r="19" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>30</v>
       </c>
@@ -6395,7 +6917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="11" customFormat="1">
+    <row r="20" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>30</v>
       </c>
@@ -6415,7 +6937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="11" customFormat="1">
+    <row r="21" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
@@ -6435,7 +6957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="2:9" s="11" customFormat="1">
+    <row r="22" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>30</v>
       </c>
@@ -6455,7 +6977,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="2:9" s="11" customFormat="1">
+    <row r="23" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>30</v>
       </c>
@@ -6472,7 +6994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:9" s="11" customFormat="1">
+    <row r="24" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>31</v>
       </c>
@@ -6492,7 +7014,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="11" customFormat="1">
+    <row r="25" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
@@ -6512,7 +7034,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="11" customFormat="1">
+    <row r="26" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>32</v>
       </c>
@@ -6532,7 +7054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="11" customFormat="1">
+    <row r="27" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>32</v>
       </c>
@@ -6552,7 +7074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="11" customFormat="1">
+    <row r="28" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
         <v>32</v>
       </c>
@@ -6572,7 +7094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="11" customFormat="1">
+    <row r="29" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="11" t="s">
         <v>142</v>
       </c>
@@ -6589,7 +7111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="11" customFormat="1">
+    <row r="30" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>38</v>
       </c>
@@ -6609,7 +7131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="11" customFormat="1">
+    <row r="31" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>38</v>
       </c>
@@ -6629,7 +7151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="11" customFormat="1">
+    <row r="32" spans="2:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>36</v>
       </c>
@@ -6649,7 +7171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="11" customFormat="1">
+    <row r="33" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="11" t="s">
         <v>36</v>
       </c>
@@ -6669,7 +7191,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="6" customFormat="1">
+    <row r="34" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11" t="s">
         <v>37</v>
@@ -6692,7 +7214,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="6" customFormat="1">
+    <row r="35" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11" t="s">
         <v>37</v>
@@ -6715,7 +7237,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="6" customFormat="1">
+    <row r="36" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11" t="s">
         <v>37</v>
@@ -6738,7 +7260,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="6" customFormat="1">
+    <row r="37" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="11" t="s">
         <v>37</v>
@@ -6761,7 +7283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="11" customFormat="1">
+    <row r="38" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>40</v>
       </c>
@@ -6781,7 +7303,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="11" customFormat="1">
+    <row r="39" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>40</v>
       </c>
@@ -6801,7 +7323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="11" customFormat="1">
+    <row r="40" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>40</v>
       </c>
@@ -6821,7 +7343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="11" customFormat="1">
+    <row r="41" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>40</v>
       </c>
@@ -6841,7 +7363,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="6" customFormat="1">
+    <row r="42" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11" t="s">
         <v>39</v>
@@ -6864,7 +7386,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="6" customFormat="1">
+    <row r="43" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="11" t="s">
         <v>39</v>
@@ -6887,7 +7409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="6" customFormat="1">
+    <row r="44" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="11" t="s">
         <v>39</v>
@@ -6910,7 +7432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="6" customFormat="1">
+    <row r="45" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="11" t="s">
         <v>39</v>
@@ -6933,7 +7455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="6" customFormat="1">
+    <row r="46" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11" t="s">
         <v>117</v>
@@ -6956,27 +7478,74 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="6" customFormat="1"/>
-    <row r="48" spans="1:9" s="11" customFormat="1"/>
+    <row r="47" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="43">
+        <v>450</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43">
+        <v>105</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43">
+        <v>200</v>
+      </c>
+      <c r="J47" s="43">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="43" t="s">
+        <v>464</v>
+      </c>
+      <c r="C48" s="43">
+        <v>250</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43">
+        <v>100</v>
+      </c>
+      <c r="J48" s="43">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="11.7109375" style="14" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" style="14"/>
+    <col min="9" max="9" width="11" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45">
+    <row r="1" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>258</v>
       </c>
@@ -7026,7 +7595,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30">
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>259</v>
       </c>
@@ -7064,7 +7633,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30">
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>268</v>
       </c>
@@ -7102,7 +7671,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30">
+    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>275</v>
       </c>
@@ -7140,7 +7709,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30">
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>284</v>
       </c>
@@ -7181,7 +7750,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="45">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>314</v>
       </c>
@@ -7219,14 +7788,14 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>276</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="28" t="s">
         <v>229</v>
       </c>
       <c r="M7" s="14">
@@ -7236,7 +7805,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30">
+    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>324</v>
       </c>
@@ -7277,7 +7846,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>397</v>
       </c>
@@ -7294,7 +7863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>400</v>
       </c>
@@ -7309,7 +7878,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>404</v>
       </c>
@@ -7324,7 +7893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>434</v>
       </c>
@@ -7344,7 +7913,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>405</v>
       </c>
@@ -7361,7 +7930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
         <v>405</v>
       </c>
@@ -7378,7 +7947,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>433</v>
       </c>
@@ -7398,7 +7967,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="45">
+    <row r="16" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>400</v>
       </c>
@@ -7418,7 +7987,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>399</v>
       </c>
@@ -7435,7 +8004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>406</v>
       </c>
@@ -7455,7 +8024,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>425</v>
       </c>
@@ -7475,7 +8044,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>435</v>
       </c>
@@ -7493,6 +8062,77 @@
       </c>
       <c r="N20" s="14" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>446</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="J21" s="14">
+        <v>2</v>
+      </c>
+      <c r="M21" s="14">
+        <v>165</v>
+      </c>
+      <c r="N21" s="14" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="54" t="s">
+        <v>471</v>
+      </c>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54">
+        <v>200</v>
+      </c>
+      <c r="N22" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" s="54">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="54" t="s">
+        <v>472</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54">
+        <v>200</v>
+      </c>
+      <c r="N23" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" s="54">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -7501,31 +8141,31 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-    </row>
-    <row r="2" spans="1:13" ht="30">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>409</v>
       </c>
@@ -7566,7 +8206,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>123</v>
       </c>
@@ -7592,22 +8232,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:L44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
     <col min="7" max="9" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -7642,7 +8283,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2" spans="2:12" s="13" customFormat="1">
+    <row r="2" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
         <v>41</v>
       </c>
@@ -7663,7 +8304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
@@ -7682,7 +8323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
@@ -7701,7 +8342,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="2:12" s="13" customFormat="1">
+    <row r="5" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>41</v>
       </c>
@@ -7722,7 +8363,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:12" s="13" customFormat="1">
+    <row r="6" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
         <v>41</v>
       </c>
@@ -7741,7 +8382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:12" s="13" customFormat="1">
+    <row r="7" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>41</v>
       </c>
@@ -7762,7 +8403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:12" s="13" customFormat="1">
+    <row r="8" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
         <v>41</v>
       </c>
@@ -7783,7 +8424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:12" s="13" customFormat="1">
+    <row r="9" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
         <v>41</v>
       </c>
@@ -7802,7 +8443,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -7813,7 +8454,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -7824,7 +8465,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -7859,7 +8500,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
@@ -7880,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="20" customFormat="1">
+    <row r="19" spans="2:12" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>55</v>
       </c>
@@ -7907,7 +8548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="13" customFormat="1">
+    <row r="20" spans="2:12" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>55</v>
       </c>
@@ -7935,7 +8576,7 @@
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>55</v>
       </c>
@@ -7968,7 +8609,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -7979,7 +8620,7 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -7990,7 +8631,7 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -8001,7 +8642,7 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -8012,7 +8653,7 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
     </row>
-    <row r="27" spans="2:12">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
@@ -8047,7 +8688,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="45">
+    <row r="28" spans="2:12" ht="45" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
         <v>247</v>
       </c>
@@ -8064,7 +8705,7 @@
       </c>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="2:12">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="18" t="s">
         <v>42</v>
       </c>
@@ -8081,7 +8722,7 @@
       </c>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="2:12">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="18" t="s">
         <v>42</v>
       </c>
@@ -8100,7 +8741,7 @@
       </c>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="2:12">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="12"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -8117,7 +8758,7 @@
       <c r="K31" s="20"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="12"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -8134,7 +8775,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="13"/>
     </row>
-    <row r="33" spans="2:12">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="18" t="s">
         <v>136</v>
@@ -8157,7 +8798,7 @@
       <c r="K33" s="20"/>
       <c r="L33" s="13"/>
     </row>
-    <row r="34" spans="2:12">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="13"/>
       <c r="C34" s="18" t="s">
         <v>131</v>
@@ -8186,110 +8827,174 @@
       </c>
       <c r="L34" s="13"/>
     </row>
-    <row r="38" spans="2:12">
-      <c r="B38" s="2" t="s">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C35" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="J35" s="45">
+        <v>20000</v>
+      </c>
+      <c r="K35" s="46"/>
+      <c r="L35" s="46" t="s">
+        <v>465</v>
+      </c>
+      <c r="M35" s="46">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C36" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="J36" s="45">
+        <v>200</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="M36" s="46">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C37" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="53" t="s">
+        <v>467</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="53">
+        <v>200</v>
+      </c>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="M37" s="46">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C38" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="H38" s="46"/>
+      <c r="I38" s="46"/>
+      <c r="J38" s="53">
+        <v>200</v>
+      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="M38" s="46">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C39" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="H39" s="46"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="53">
+        <v>200</v>
+      </c>
+      <c r="K39" s="46"/>
+      <c r="L39" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="M39" s="46">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="17" t="s">
+      <c r="K41" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L41" s="17" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="39" spans="2:12">
-      <c r="B39" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12">
-      <c r="B40" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J40" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12">
-      <c r="B41" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1">
-        <v>2</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="J41" s="1">
-        <v>15</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-    </row>
-    <row r="42" spans="2:12">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>240</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
@@ -8302,36 +9007,101 @@
         <v>151</v>
       </c>
       <c r="J42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J44" s="1">
         <v>15</v>
       </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-    </row>
-    <row r="43" spans="2:12">
-      <c r="B43" s="13"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="13"/>
-      <c r="L43" s="13"/>
-    </row>
-    <row r="44" spans="2:12">
-      <c r="B44" s="13"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>2</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J45" s="1">
+        <v>15</v>
+      </c>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46" s="13"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47" s="13"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8340,47 +9110,47 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="37" t="s">
         <v>361</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -8411,7 +9181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>337</v>
       </c>
@@ -8437,7 +9207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="60">
+    <row r="4" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>357</v>
       </c>
@@ -8466,14 +9236,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="45">
+    <row r="5" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>369</v>
       </c>
       <c r="B5" t="s">
         <v>332</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>371</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -8495,7 +9265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="75">
+    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>364</v>
       </c>
@@ -8518,7 +9288,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>373</v>
       </c>
@@ -8532,14 +9302,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="39" t="s">
         <v>375</v>
       </c>
       <c r="E8">
@@ -8558,14 +9328,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>378</v>
       </c>
       <c r="B9" t="s">
         <v>332</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="39" t="s">
         <v>380</v>
       </c>
       <c r="D9">
@@ -8590,17 +9360,17 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>426</v>
       </c>
       <c r="B10" t="s">
         <v>332</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="39" t="s">
         <v>429</v>
       </c>
       <c r="H10" t="s">
@@ -8613,17 +9383,17 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>332</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="39" t="s">
         <v>429</v>
       </c>
       <c r="H11" t="s">
@@ -8633,35 +9403,35 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="37" t="s">
         <v>385</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -8692,7 +9462,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>383</v>
       </c>
@@ -8724,7 +9494,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>395</v>
       </c>
@@ -8754,44 +9524,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:I38"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="3" width="41" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
@@ -8820,7 +9591,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>149</v>
       </c>
@@ -8837,29 +9608,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="26" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-    </row>
-    <row r="8" spans="1:18">
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>47</v>
       </c>
@@ -8888,7 +9659,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="30">
+    <row r="9" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -8906,29 +9677,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="26" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>47</v>
       </c>
@@ -8957,7 +9728,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="75">
+    <row r="14" spans="1:18" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>161</v>
       </c>
@@ -8980,7 +9751,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="60">
+    <row r="15" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>186</v>
       </c>
@@ -9003,7 +9774,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="60">
+    <row r="16" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>186</v>
       </c>
@@ -9026,7 +9797,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="45">
+    <row r="17" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -9049,7 +9820,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="60">
+    <row r="18" spans="1:18" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>228</v>
       </c>
@@ -9075,7 +9846,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="120">
+    <row r="19" spans="1:18" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>285</v>
       </c>
@@ -9093,7 +9864,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="90">
+    <row r="20" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>286</v>
       </c>
@@ -9111,519 +9882,598 @@
         <v>188</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="26" t="s">
+    <row r="21" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>233</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F21" s="46">
+        <v>200</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="46" t="s">
+        <v>470</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F22" s="46">
+        <v>200</v>
+      </c>
+      <c r="G22" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="15" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B25" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G25" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H25" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I25" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="90">
-      <c r="A24" t="s">
+    <row r="26" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>291</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B26" s="14" t="s">
         <v>293</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>294</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" t="s">
         <v>187</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="90">
-      <c r="A25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D25" t="s">
-        <v>302</v>
-      </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="75">
-      <c r="A26" t="s">
-        <v>304</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" t="s">
-        <v>196</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
       <c r="G26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>304</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="E28" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="26" t="s">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="15" t="s">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
+      <c r="Q32" s="42"/>
+      <c r="R32" s="42"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B33" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="15" t="s">
+      <c r="D33" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E33" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F33" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G33" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H33" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I33" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="75">
-      <c r="A30" t="s">
+    <row r="34" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>159</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B34" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="14"/>
-      <c r="D30" t="s">
+      <c r="C34" s="14"/>
+      <c r="D34" t="s">
         <v>151</v>
       </c>
-      <c r="F30">
+      <c r="F34">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="75">
-      <c r="A31" t="s">
+    <row r="35" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="14"/>
-      <c r="D31" t="s">
+      <c r="C35" s="14"/>
+      <c r="D35" t="s">
         <v>151</v>
       </c>
-      <c r="F31">
+      <c r="F35">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>165</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>168</v>
       </c>
-      <c r="F32">
+      <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="s">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>166</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>169</v>
       </c>
-      <c r="F33">
+      <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="s">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>167</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>170</v>
       </c>
-      <c r="F34">
+      <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="26" t="s">
+    <row r="39" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="B39" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46">
+        <v>200</v>
+      </c>
+      <c r="G39" s="46" t="s">
+        <v>469</v>
+      </c>
+      <c r="H39" s="46">
+        <v>1.7</v>
+      </c>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="15" t="s">
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="42"/>
+      <c r="Q41" s="42"/>
+      <c r="R41" s="42"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B42" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D42" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="15" t="s">
+      <c r="E42" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F38" s="15" t="s">
+      <c r="F42" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G42" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H42" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I42" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="75">
-      <c r="A39" t="s">
+    <row r="43" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>194</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B43" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" t="s">
+      <c r="C43" s="14"/>
+      <c r="D43" t="s">
         <v>197</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E43" t="s">
         <v>196</v>
       </c>
-      <c r="F39">
+      <c r="F43">
         <v>2</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G43" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="90">
-      <c r="A40" t="s">
+    <row r="44" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>266</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B44" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>151</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>152</v>
       </c>
-      <c r="F40">
+      <c r="F44">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="90">
-      <c r="A41" t="s">
+    <row r="45" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>266</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B45" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
         <v>151</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>339</v>
       </c>
-      <c r="F41">
+      <c r="F45">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="26" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="15" t="s">
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B48" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="D48" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="E48" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F44" s="15" t="s">
+      <c r="F48" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G48" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H44" s="15" t="s">
+      <c r="H48" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I44" s="15" t="s">
+      <c r="I48" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="75">
-      <c r="A45" t="s">
+    <row r="49" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>272</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B49" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D49" t="s">
         <v>274</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E49" t="s">
         <v>196</v>
       </c>
-      <c r="F45">
+      <c r="F49">
         <v>2</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G49" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
-      <c r="A48" s="26" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="15" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="D53" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="E49" s="15" t="s">
+      <c r="E53" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="15" t="s">
+      <c r="F53" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G53" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="H53" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="I53" s="15" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="75">
-      <c r="A50" t="s">
+    <row r="54" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>295</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B54" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C54" t="s">
         <v>297</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D54" t="s">
         <v>299</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E54" t="s">
         <v>187</v>
       </c>
-      <c r="F50">
+      <c r="F54">
         <v>2</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75">
-      <c r="A51" t="s">
+    <row r="55" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>308</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B55" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C55" t="s">
         <v>309</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E55" t="s">
         <v>152</v>
       </c>
-      <c r="F51">
+      <c r="F55">
         <v>2</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G55" t="s">
         <v>188</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A48:R48"/>
-    <mergeCell ref="A22:R22"/>
-    <mergeCell ref="A43:R43"/>
+    <mergeCell ref="A52:R52"/>
+    <mergeCell ref="A24:R24"/>
+    <mergeCell ref="A47:R47"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A7:R7"/>
-    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="A32:R32"/>
     <mergeCell ref="A12:R12"/>
-    <mergeCell ref="A37:R37"/>
+    <mergeCell ref="A41:R41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
